--- a/biology/Médecine/La_Tunisie_médicale/La_Tunisie_médicale.xlsx
+++ b/biology/Médecine/La_Tunisie_médicale/La_Tunisie_médicale.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>La_Tunisie_m%C3%A9dicale</t>
+          <t>La_Tunisie_médicale</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La Tunisie médicale (arabe : المجلة الطبية التونسية), plus communément appelée Tunis Med (abréviation internationale), est une revue médicale mensuelle de Tunisie. Elle est fondée à Tunis en 1903 sous le titre Bulletin et travaux de la Société des sciences médicales de Tunis. En 1914, elle est rebaptisée Revue tunisienne des sciences médicales avant de prendre son titre actuel en 1929. 
